--- a/ExcelData/Data_Table/Bosstable.xlsx
+++ b/ExcelData/Data_Table/Bosstable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABBA1D6-301F-4924-9DF9-9B765355DE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF844CBD-C732-4328-B279-D3317ED9FDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="22530" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11220" yWindow="390" windowWidth="17415" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BosstableTable" sheetId="16" r:id="rId1"/>
@@ -1038,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>

--- a/ExcelData/Data_Table/Bosstable.xlsx
+++ b/ExcelData/Data_Table/Bosstable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF844CBD-C732-4328-B279-D3317ED9FDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD44399-669D-49B7-AF57-B8B1F5439A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="390" windowWidth="17415" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BosstableTable" sheetId="16" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>번호</t>
   </si>
@@ -221,30 +221,6 @@
   </si>
   <si>
     <t>Speed</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>듀라한</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>라그나로크</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>헬리아</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ragnarok</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Durahan</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hellia</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -482,6 +458,22 @@
     <t>BossStatIndex</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>FightBear</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸움곰</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FallenAngel</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>타천사</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -602,7 +594,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -705,11 +697,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -801,6 +868,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1038,9 +1141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1092,39 +1193,39 @@
     </row>
     <row r="2" spans="1:26" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="35" t="s">
-        <v>28</v>
+      <c r="E2" s="47" t="s">
+        <v>22</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="36" t="s">
-        <v>29</v>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="48" t="s">
+        <v>23</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
       <c r="S2" s="29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="T2" s="43" t="s">
         <v>15</v>
       </c>
       <c r="U2" s="1"/>
@@ -1136,10 +1237,10 @@
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="18" t="s">
         <v>9</v>
       </c>
@@ -1150,22 +1251,22 @@
         <v>13</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K3" s="27" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M3" s="28" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N3" s="28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="O3" s="18" t="s">
         <v>18</v>
@@ -1177,12 +1278,12 @@
         <v>20</v>
       </c>
       <c r="R3" s="26" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="S3" s="30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
-      <c r="T3" s="32"/>
+      <c r="T3" s="44"/>
       <c r="U3" s="1"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
@@ -1202,7 +1303,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>10</v>
@@ -1214,37 +1315,37 @@
         <v>14</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>21</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="R4" s="19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="S4" s="19" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="T4" s="14" t="s">
         <v>16</v>
@@ -1268,49 +1369,49 @@
         <v>6</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="R5" s="19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="T5" s="14" t="s">
         <v>17</v>
@@ -1328,13 +1429,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E6" s="23">
-        <v>21001</v>
+        <v>131001</v>
       </c>
       <c r="F6" s="23">
         <v>50</v>
@@ -1343,7 +1444,7 @@
         <v>2000</v>
       </c>
       <c r="H6" s="23">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I6" s="23">
         <v>1</v>
@@ -1358,25 +1459,17 @@
         <v>100</v>
       </c>
       <c r="M6" s="23">
+        <v>12</v>
+      </c>
+      <c r="N6" s="23">
         <v>20</v>
       </c>
-      <c r="N6" s="23">
-        <v>5</v>
-      </c>
-      <c r="O6" s="25">
-        <v>1000123</v>
-      </c>
-      <c r="P6" s="25">
-        <v>1000124</v>
-      </c>
-      <c r="Q6" s="25">
-        <v>1000125</v>
-      </c>
-      <c r="R6" s="25">
-        <v>1000126</v>
-      </c>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
       <c r="S6" s="25">
-        <v>0</v>
+        <v>931001</v>
       </c>
       <c r="T6" s="15"/>
       <c r="U6" s="4"/>
@@ -1391,56 +1484,56 @@
       <c r="B7" s="21">
         <v>2</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>22</v>
+      <c r="C7" s="32" t="s">
+        <v>50</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>26</v>
+      <c r="D7" s="33" t="s">
+        <v>49</v>
       </c>
-      <c r="E7" s="23">
-        <v>21002</v>
+      <c r="E7" s="33">
+        <v>131002</v>
       </c>
-      <c r="F7" s="23">
-        <v>30</v>
+      <c r="F7" s="33">
+        <v>100</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="33">
         <v>5000</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="33">
+        <v>70</v>
+      </c>
+      <c r="I7" s="33">
+        <v>1</v>
+      </c>
+      <c r="J7" s="33">
+        <v>2</v>
+      </c>
+      <c r="K7" s="33">
+        <v>3</v>
+      </c>
+      <c r="L7" s="34">
+        <v>100</v>
+      </c>
+      <c r="M7" s="33">
         <v>20</v>
       </c>
-      <c r="I7" s="23">
-        <v>1</v>
+      <c r="N7" s="33">
+        <v>15</v>
       </c>
-      <c r="J7" s="23">
-        <v>2</v>
+      <c r="O7" s="35">
+        <v>971002</v>
       </c>
-      <c r="K7" s="23">
-        <v>3</v>
+      <c r="P7" s="35">
+        <v>971005</v>
       </c>
-      <c r="L7" s="24">
-        <v>100</v>
+      <c r="Q7" s="35">
+        <v>971006</v>
       </c>
-      <c r="M7" s="23">
-        <v>20</v>
+      <c r="R7" s="35">
+        <v>971007</v>
       </c>
-      <c r="N7" s="23">
-        <v>8</v>
-      </c>
-      <c r="O7" s="25">
-        <v>1000123</v>
-      </c>
-      <c r="P7" s="25">
-        <v>1000124</v>
-      </c>
-      <c r="Q7" s="25">
-        <v>1000125</v>
-      </c>
-      <c r="R7" s="25">
-        <v>1000126</v>
-      </c>
-      <c r="S7" s="25">
-        <v>0</v>
+      <c r="S7" s="35">
+        <v>931002</v>
       </c>
       <c r="T7" s="15"/>
       <c r="U7" s="4"/>
@@ -1452,60 +1545,26 @@
     </row>
     <row r="8" spans="1:26" ht="16.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="21">
+      <c r="B8" s="31">
         <v>3</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="23">
-        <v>21003</v>
-      </c>
-      <c r="F8" s="23">
-        <v>80</v>
-      </c>
-      <c r="G8" s="23">
-        <v>3000</v>
-      </c>
-      <c r="H8" s="23">
-        <v>5</v>
-      </c>
-      <c r="I8" s="23">
-        <v>1</v>
-      </c>
-      <c r="J8" s="23">
-        <v>2</v>
-      </c>
-      <c r="K8" s="23">
-        <v>3</v>
-      </c>
-      <c r="L8" s="24">
-        <v>100</v>
-      </c>
-      <c r="M8" s="23">
-        <v>20</v>
-      </c>
-      <c r="N8" s="23">
-        <v>10</v>
-      </c>
-      <c r="O8" s="25">
-        <v>1000123</v>
-      </c>
-      <c r="P8" s="25">
-        <v>1000124</v>
-      </c>
-      <c r="Q8" s="25">
-        <v>1000125</v>
-      </c>
-      <c r="R8" s="25">
-        <v>1000126</v>
-      </c>
-      <c r="S8" s="25">
-        <v>0</v>
-      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="42"/>
       <c r="T8" s="15"/>
       <c r="U8" s="4"/>
       <c r="V8" s="2"/>
@@ -1519,7 +1578,7 @@
       <c r="B9" s="5">
         <v>4</v>
       </c>
-      <c r="C9" s="15"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -1535,7 +1594,7 @@
       <c r="P9" s="17"/>
       <c r="Q9" s="17"/>
       <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
+      <c r="S9" s="36"/>
       <c r="T9" s="2"/>
       <c r="U9" s="4"/>
       <c r="V9" s="2"/>
@@ -1549,23 +1608,23 @@
       <c r="B10" s="7">
         <v>5</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="36"/>
       <c r="T10" s="2"/>
       <c r="U10" s="4"/>
       <c r="V10" s="2"/>
@@ -29504,7 +29563,7 @@
   <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="3" max="26" man="1"/>
-    <brk id="8" max="26" man="1"/>
+    <brk id="7" max="30" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="2" max="47" man="1"/>

--- a/ExcelData/Data_Table/Bosstable.xlsx
+++ b/ExcelData/Data_Table/Bosstable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD44399-669D-49B7-AF57-B8B1F5439A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684D705F-564D-4B63-8756-50A332920321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BosstableTable" sheetId="16" r:id="rId1"/>
@@ -1141,7 +1141,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -1464,10 +1466,18 @@
       <c r="N6" s="23">
         <v>20</v>
       </c>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
+      <c r="O6" s="25">
+        <v>231001</v>
+      </c>
+      <c r="P6" s="25">
+        <v>231002</v>
+      </c>
+      <c r="Q6" s="25">
+        <v>231003</v>
+      </c>
+      <c r="R6" s="25">
+        <v>231004</v>
+      </c>
       <c r="S6" s="25">
         <v>931001</v>
       </c>
@@ -1521,20 +1531,14 @@
         <v>15</v>
       </c>
       <c r="O7" s="35">
-        <v>971002</v>
+        <v>231005</v>
       </c>
       <c r="P7" s="35">
-        <v>971005</v>
+        <v>231008</v>
       </c>
-      <c r="Q7" s="35">
-        <v>971006</v>
-      </c>
-      <c r="R7" s="35">
-        <v>971007</v>
-      </c>
-      <c r="S7" s="35">
-        <v>931002</v>
-      </c>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="25"/>
       <c r="T7" s="15"/>
       <c r="U7" s="4"/>
       <c r="V7" s="2"/>

--- a/ExcelData/Data_Table/Bosstable.xlsx
+++ b/ExcelData/Data_Table/Bosstable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684D705F-564D-4B63-8756-50A332920321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7611D72-1545-44B4-9089-44A6BBAB0483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="14715" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BosstableTable" sheetId="16" r:id="rId1"/>
@@ -1141,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="M1" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1536,9 +1536,15 @@
       <c r="P7" s="35">
         <v>231008</v>
       </c>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="25"/>
+      <c r="Q7" s="35">
+        <v>0</v>
+      </c>
+      <c r="R7" s="35">
+        <v>0</v>
+      </c>
+      <c r="S7" s="25">
+        <v>0</v>
+      </c>
       <c r="T7" s="15"/>
       <c r="U7" s="4"/>
       <c r="V7" s="2"/>

--- a/ExcelData/Data_Table/Bosstable.xlsx
+++ b/ExcelData/Data_Table/Bosstable.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\Assets\00.Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7611D72-1545-44B4-9089-44A6BBAB0483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AE51BB-677A-43F1-8672-F079CB9E7A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="14715" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BosstableTable" sheetId="16" r:id="rId1"/>
+    <sheet name="Bosstable_Table" sheetId="16" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BosstableTable!$B$5:$T$105</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">BosstableTable!$A$1:$AE$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bosstable_Table!$B$5:$T$105</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Bosstable_Table!$A$1:$AE$48</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1141,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="M1" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>

--- a/ExcelData/Data_Table/Bosstable.xlsx
+++ b/ExcelData/Data_Table/Bosstable.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitSources\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7611D72-1545-44B4-9089-44A6BBAB0483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4D1313-5BDB-4A19-9E66-16E79830EF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="14715" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BosstableTable" sheetId="16" r:id="rId1"/>
+    <sheet name="Boss_Table" sheetId="16" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BosstableTable!$B$5:$T$105</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">BosstableTable!$A$1:$AE$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Boss_Table!$B$5:$T$105</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Boss_Table!$A$1:$AE$48</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>

--- a/ExcelData/Data_Table/Bosstable.xlsx
+++ b/ExcelData/Data_Table/Bosstable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitSources\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4D1313-5BDB-4A19-9E66-16E79830EF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABFAAD2-9009-4282-843B-04D0A09BAB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Boss_Table" sheetId="16" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>번호</t>
   </si>
@@ -474,6 +474,14 @@
     <t>타천사</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>던전미라</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mummy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -594,7 +602,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -698,32 +706,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -741,42 +723,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -870,40 +821,10 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1141,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="M1" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1195,39 +1116,39 @@
     </row>
     <row r="2" spans="1:26" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="48" t="s">
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
       <c r="S2" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="43" t="s">
+      <c r="T2" s="33" t="s">
         <v>15</v>
       </c>
       <c r="U2" s="1"/>
@@ -1239,10 +1160,10 @@
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="18" t="s">
         <v>9</v>
       </c>
@@ -1285,7 +1206,7 @@
       <c r="S3" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="44"/>
+      <c r="T3" s="34"/>
       <c r="U3" s="1"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
@@ -1446,7 +1367,7 @@
         <v>2000</v>
       </c>
       <c r="H6" s="23">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I6" s="23">
         <v>1</v>
@@ -1461,7 +1382,7 @@
         <v>100</v>
       </c>
       <c r="M6" s="23">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N6" s="23">
         <v>20</v>
@@ -1494,56 +1415,56 @@
       <c r="B7" s="21">
         <v>2</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="23">
         <v>131002</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="23">
         <v>100</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="23">
         <v>5000</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="23">
         <v>70</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="23">
         <v>1</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="23">
         <v>2</v>
       </c>
-      <c r="K7" s="33">
+      <c r="K7" s="23">
         <v>3</v>
       </c>
-      <c r="L7" s="34">
-        <v>100</v>
+      <c r="L7" s="24">
+        <v>70</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="23">
         <v>20</v>
       </c>
-      <c r="N7" s="33">
+      <c r="N7" s="23">
         <v>15</v>
       </c>
-      <c r="O7" s="35">
+      <c r="O7" s="25">
         <v>231005</v>
       </c>
-      <c r="P7" s="35">
+      <c r="P7" s="25">
         <v>231008</v>
       </c>
-      <c r="Q7" s="35">
+      <c r="Q7" s="25">
         <v>0</v>
       </c>
-      <c r="R7" s="35">
+      <c r="R7" s="25">
         <v>0</v>
       </c>
       <c r="S7" s="25">
-        <v>0</v>
+        <v>931002</v>
       </c>
       <c r="T7" s="15"/>
       <c r="U7" s="4"/>
@@ -1555,26 +1476,60 @@
     </row>
     <row r="8" spans="1:26" ht="16.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="31">
+      <c r="B8" s="21">
         <v>3</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="42"/>
+      <c r="C8" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="23">
+        <v>131003</v>
+      </c>
+      <c r="F8" s="23">
+        <v>120</v>
+      </c>
+      <c r="G8" s="23">
+        <v>7000</v>
+      </c>
+      <c r="H8" s="23">
+        <v>100</v>
+      </c>
+      <c r="I8" s="23">
+        <v>1</v>
+      </c>
+      <c r="J8" s="23">
+        <v>2</v>
+      </c>
+      <c r="K8" s="23">
+        <v>3</v>
+      </c>
+      <c r="L8" s="24">
+        <v>120</v>
+      </c>
+      <c r="M8" s="23">
+        <v>10</v>
+      </c>
+      <c r="N8" s="23">
+        <v>20</v>
+      </c>
+      <c r="O8" s="25">
+        <v>0</v>
+      </c>
+      <c r="P8" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>0</v>
+      </c>
+      <c r="R8" s="25">
+        <v>0</v>
+      </c>
+      <c r="S8" s="25">
+        <v>931003</v>
+      </c>
       <c r="T8" s="15"/>
       <c r="U8" s="4"/>
       <c r="V8" s="2"/>
@@ -1588,7 +1543,7 @@
       <c r="B9" s="5">
         <v>4</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -1604,7 +1559,7 @@
       <c r="P9" s="17"/>
       <c r="Q9" s="17"/>
       <c r="R9" s="17"/>
-      <c r="S9" s="36"/>
+      <c r="S9" s="31"/>
       <c r="T9" s="2"/>
       <c r="U9" s="4"/>
       <c r="V9" s="2"/>
@@ -1618,7 +1573,7 @@
       <c r="B10" s="7">
         <v>5</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
@@ -1634,7 +1589,7 @@
       <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
       <c r="R10" s="17"/>
-      <c r="S10" s="36"/>
+      <c r="S10" s="31"/>
       <c r="T10" s="2"/>
       <c r="U10" s="4"/>
       <c r="V10" s="2"/>
@@ -29573,7 +29528,7 @@
   <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="3" max="26" man="1"/>
-    <brk id="7" max="30" man="1"/>
+    <brk id="8" max="30" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
     <brk id="2" max="47" man="1"/>
